--- a/movieReview/login_records.xlsx
+++ b/movieReview/login_records.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +930,156 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-04-06 10:14:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Joker</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-04-06 10:34:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-04-06 10:53:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>user2000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-04-06 15:41:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-04-06 16:18:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Joker</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-04-06 16:37:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>user2000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-04-06 17:39:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Joker</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-04-06 18:09:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Joker</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-04-06 19:01:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-05-01 21:03:07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/movieReview/login_records.xlsx
+++ b/movieReview/login_records.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,6 +1080,66 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-07-13 19:59:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-07-13 20:11:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-10-20 22:48:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-10-20 22:53:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
